--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Fall.111220-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Fall.111220-1.xlsx_with_dialog_acts.xlsx
@@ -1819,12 +1819,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2113,12 +2113,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2155,12 +2155,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2323,12 +2323,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2449,12 +2449,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2533,12 +2533,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2701,12 +2701,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3541,12 +3541,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3835,12 +3835,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3877,12 +3877,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3961,12 +3961,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4003,12 +4003,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4087,12 +4087,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4297,12 +4297,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4885,12 +4885,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5347,12 +5347,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5935,12 +5935,12 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6019,12 +6019,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7195,12 +7195,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7657,12 +7657,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7699,12 +7699,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7825,12 +7825,12 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7867,12 +7867,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7909,12 +7909,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7993,12 +7993,12 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8119,12 +8119,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8161,12 +8161,12 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8287,12 +8287,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9001,12 +9001,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9169,12 +9169,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9253,12 +9253,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9925,12 +9925,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10051,12 +10051,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10429,12 +10429,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10681,12 +10681,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11479,12 +11479,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11563,12 +11563,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12655,12 +12655,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13579,12 +13579,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13705,12 +13705,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14671,12 +14671,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16225,12 +16225,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16519,12 +16519,12 @@
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16729,12 +16729,12 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17695,12 +17695,12 @@
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18535,12 +18535,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19207,12 +19207,12 @@
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19375,12 +19375,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19627,12 +19627,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20131,12 +20131,12 @@
       <c r="H469" t="inlineStr"/>
       <c r="I469" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20299,12 +20299,12 @@
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20383,12 +20383,12 @@
       <c r="H475" t="inlineStr"/>
       <c r="I475" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20759,12 +20759,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
